--- a/storage/candidates.xlsx
+++ b/storage/candidates.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miJ8HZq48BnNwIMrRUboB1jZ575UA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="184">
   <si>
     <t>ballot_number</t>
   </si>
@@ -50,18 +55,535 @@
   </si>
   <si>
     <t>HOME OWNER</t>
+  </si>
+  <si>
+    <t>KAPUSO-PM</t>
+  </si>
+  <si>
+    <t>PDP CARES</t>
+  </si>
+  <si>
+    <t>MARVELOUS TAYO</t>
+  </si>
+  <si>
+    <t>AKO OFW</t>
+  </si>
+  <si>
+    <t>UNITED SENIOR CITIZEN</t>
+  </si>
+  <si>
+    <t>WOW PILIPINAS</t>
+  </si>
+  <si>
+    <t>ALTERNATIBA</t>
+  </si>
+  <si>
+    <t>1-RIDER PARTYLIST</t>
+  </si>
+  <si>
+    <t>1-CARE</t>
+  </si>
+  <si>
+    <t>ABP</t>
+  </si>
+  <si>
+    <t>AKO MUSIKERO</t>
+  </si>
+  <si>
+    <t>AKO BICOL</t>
+  </si>
+  <si>
+    <t>PRAI</t>
+  </si>
+  <si>
+    <t>4PS</t>
+  </si>
+  <si>
+    <t>MAAGAP</t>
+  </si>
+  <si>
+    <t>ABANTE PILIPINAS</t>
+  </si>
+  <si>
+    <t>AKTIBONG KAAGAPAY</t>
+  </si>
+  <si>
+    <t>ALSA BISAYA</t>
+  </si>
+  <si>
+    <t>PROBINSYANO AKO</t>
+  </si>
+  <si>
+    <t>YACAP</t>
+  </si>
+  <si>
+    <t>MAGDALO</t>
+  </si>
+  <si>
+    <t>ACT-CIS</t>
+  </si>
+  <si>
+    <t>HUGPONG FEDERAL</t>
+  </si>
+  <si>
+    <t>TGP</t>
+  </si>
+  <si>
+    <t>ONE COOP</t>
+  </si>
+  <si>
+    <t>BARKADAHAN</t>
+  </si>
+  <si>
+    <t>DUMPER PTDA</t>
+  </si>
+  <si>
+    <t>MALABUNG</t>
+  </si>
+  <si>
+    <t>BH (BAGONG HENERASYON)</t>
+  </si>
+  <si>
+    <t>AKMA-PTM</t>
+  </si>
+  <si>
+    <t>IPATUPAD</t>
+  </si>
+  <si>
+    <t>PINUNO</t>
+  </si>
+  <si>
+    <t>LPGMA</t>
+  </si>
+  <si>
+    <t>CLICK PARTY</t>
+  </si>
+  <si>
+    <t>TODA</t>
+  </si>
+  <si>
+    <t>BHW</t>
+  </si>
+  <si>
+    <t>MALASAKIT@BAYANIHAN</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>PASAHERO PARTYLIST</t>
+  </si>
+  <si>
+    <t>ANGAT</t>
+  </si>
+  <si>
+    <t>SOLID-CHANGE</t>
+  </si>
+  <si>
+    <t>BICOL SARO</t>
+  </si>
+  <si>
+    <t>OFW</t>
+  </si>
+  <si>
+    <t>ANG PROBINSIYANO</t>
+  </si>
+  <si>
+    <t>ANAKALUSUGAN</t>
+  </si>
+  <si>
+    <t>PBA</t>
+  </si>
+  <si>
+    <t>PEACE</t>
+  </si>
+  <si>
+    <t>P3PWD</t>
+  </si>
+  <si>
+    <t>S.M.I.L.E</t>
+  </si>
+  <si>
+    <t>AAMBIS-OWA</t>
+  </si>
+  <si>
+    <t>BUTIL</t>
+  </si>
+  <si>
+    <t>LUNAS</t>
+  </si>
+  <si>
+    <t>ANG KOMADRONA</t>
+  </si>
+  <si>
+    <t>KABAKA</t>
+  </si>
+  <si>
+    <t>SAGIP</t>
+  </si>
+  <si>
+    <t>ANG KABUHAYAN</t>
+  </si>
+  <si>
+    <t>AKO I.P.</t>
+  </si>
+  <si>
+    <t>PHILRECA</t>
+  </si>
+  <si>
+    <t>BABAE AKO</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>KALINGA</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>RECOBODA</t>
+  </si>
+  <si>
+    <t>ANGAT PINOY</t>
+  </si>
+  <si>
+    <t>ANAC-IP</t>
+  </si>
+  <si>
+    <t>DIWA</t>
+  </si>
+  <si>
+    <t>ASENSO PINOY</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PAMILYA MUNA</t>
+  </si>
+  <si>
+    <t>AYUDA SANDUGO</t>
+  </si>
+  <si>
+    <t>BUKLOD FILIPINO</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>MOCHA</t>
+  </si>
+  <si>
+    <t>ACT TEACHERS</t>
+  </si>
+  <si>
+    <t>ALONA</t>
+  </si>
+  <si>
+    <t>KABALIKAT</t>
+  </si>
+  <si>
+    <t>ALIF</t>
+  </si>
+  <si>
+    <t>1-UTAP BICOL</t>
+  </si>
+  <si>
+    <t>TINGOG</t>
+  </si>
+  <si>
+    <t>H.E.L.P. PILIPINAS</t>
+  </si>
+  <si>
+    <t>TUCP</t>
+  </si>
+  <si>
+    <t>PTA</t>
+  </si>
+  <si>
+    <t>AGIMAT</t>
+  </si>
+  <si>
+    <t>KONTRA BROWNOUT</t>
+  </si>
+  <si>
+    <t>TULUNGAN TAYO</t>
+  </si>
+  <si>
+    <t>DUTERTE YOUTH</t>
+  </si>
+  <si>
+    <t>ABEKA</t>
+  </si>
+  <si>
+    <t>KABATAAN</t>
+  </si>
+  <si>
+    <t>ACTS-OFW</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>USWAG ILONGGO</t>
+  </si>
+  <si>
+    <t>AKO BISAYA</t>
+  </si>
+  <si>
+    <t>KAPAMILYA</t>
+  </si>
+  <si>
+    <t>PUSONG PINOY</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>SILBI</t>
+  </si>
+  <si>
+    <t>CIBAC</t>
+  </si>
+  <si>
+    <t>SUBANEN</t>
+  </si>
+  <si>
+    <t>AKKK</t>
+  </si>
+  <si>
+    <t>BG PARTY-LIST</t>
+  </si>
+  <si>
+    <t>PAMILYANG MAGSASAKA</t>
+  </si>
+  <si>
+    <t>COOP NATCCO</t>
+  </si>
+  <si>
+    <t>FRONTLINERS ANG BIDA</t>
+  </si>
+  <si>
+    <t>KASAMA</t>
+  </si>
+  <si>
+    <t>AKO BISDAK</t>
+  </si>
+  <si>
+    <t>GP PARTY</t>
+  </si>
+  <si>
+    <t>BAHAY</t>
+  </si>
+  <si>
+    <t>MAGSASAKA</t>
+  </si>
+  <si>
+    <t>MARINO</t>
+  </si>
+  <si>
+    <t>UNITED FRONTLINERS</t>
+  </si>
+  <si>
+    <t>L.O.G.R.O. KUSINERO</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>ABANG LINGKOD</t>
+  </si>
+  <si>
+    <t>KUSUG TAUSUG</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>OK PARTYLIST</t>
+  </si>
+  <si>
+    <t>A TEACHER</t>
+  </si>
+  <si>
+    <t>PASADA-CC</t>
+  </si>
+  <si>
+    <t>OFW FAMILY</t>
+  </si>
+  <si>
+    <t>ANGKLA</t>
+  </si>
+  <si>
+    <t>COCOMAN</t>
+  </si>
+  <si>
+    <t>ACT AS ONE</t>
+  </si>
+  <si>
+    <t>AKO ILOCANO AKO</t>
+  </si>
+  <si>
+    <t>TRABAHO</t>
+  </si>
+  <si>
+    <t>PATROL</t>
+  </si>
+  <si>
+    <t>AKO PADAYON</t>
+  </si>
+  <si>
+    <t>ABONO</t>
+  </si>
+  <si>
+    <t>MANILA TEACHERS</t>
+  </si>
+  <si>
+    <t>KOOP-KAMPI</t>
+  </si>
+  <si>
+    <t>MAYPAGASA</t>
+  </si>
+  <si>
+    <t>PVAID</t>
+  </si>
+  <si>
+    <t>TUTOK TO WIN</t>
+  </si>
+  <si>
+    <t>BAYAN MUNA</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ARTE</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>BUNYOG</t>
+  </si>
+  <si>
+    <t>AKBAYAN</t>
+  </si>
+  <si>
+    <t>DAMAYAN</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>CANCER PARTY LIST</t>
+  </si>
+  <si>
+    <t>1-ANG EDUKASYON</t>
+  </si>
+  <si>
+    <t>UFCC</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>MAHARLIKA</t>
+  </si>
+  <si>
+    <t>ANAKPAWIS</t>
+  </si>
+  <si>
+    <t>1TAHANAN</t>
+  </si>
+  <si>
+    <t>TURISMO</t>
+  </si>
+  <si>
+    <t>APEC</t>
+  </si>
+  <si>
+    <t>SENIOR CITIZENS PARTYLIST</t>
+  </si>
+  <si>
+    <t>AASENSO</t>
+  </si>
+  <si>
+    <t>AMIN</t>
+  </si>
+  <si>
+    <t>1-PACMAN</t>
+  </si>
+  <si>
+    <t>ABB-NFCPI</t>
+  </si>
+  <si>
+    <t>AN WARAY</t>
+  </si>
+  <si>
+    <t>AP PARTYLIST</t>
+  </si>
+  <si>
+    <t>AKAP PINOY</t>
+  </si>
+  <si>
+    <t>BUHAY</t>
+  </si>
+  <si>
+    <t>ARISE</t>
+  </si>
+  <si>
+    <t>IWI</t>
+  </si>
+  <si>
+    <t>ANG TINIG NG SENIORS</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>IPEACE EPANAW</t>
+  </si>
+  <si>
+    <t>APAT-DAPAT</t>
+  </si>
+  <si>
+    <t>UMA ILONGGO</t>
+  </si>
+  <si>
+    <t>AYUDA</t>
+  </si>
+  <si>
+    <t>SAMBAYANAN</t>
+  </si>
+  <si>
+    <t>AKO BREEDER</t>
+  </si>
+  <si>
+    <t>FPJ</t>
+  </si>
+  <si>
+    <t>LIBRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -83,9 +605,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -304,9 +830,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
@@ -337,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
@@ -348,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
@@ -359,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
@@ -370,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
@@ -381,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
@@ -392,6 +921,2708 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="2">
+        <v>173.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="2">
+        <v>174.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
